--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H2">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.54688437510582</v>
+        <v>7.602918333333334</v>
       </c>
       <c r="N2">
-        <v>7.54688437510582</v>
+        <v>22.808755</v>
       </c>
       <c r="O2">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="P2">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="Q2">
-        <v>2.890018178604793</v>
+        <v>17.21485968443389</v>
       </c>
       <c r="R2">
-        <v>2.890018178604793</v>
+        <v>154.933737159905</v>
       </c>
       <c r="S2">
-        <v>0.05839916909878027</v>
+        <v>0.17960490678713</v>
       </c>
       <c r="T2">
-        <v>0.05839916909878027</v>
+        <v>0.17960490678713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H3">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.08857186609161</v>
+        <v>3.132521333333333</v>
       </c>
       <c r="N3">
-        <v>3.08857186609161</v>
+        <v>9.397564000000001</v>
       </c>
       <c r="O3">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="P3">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="Q3">
-        <v>1.182743552872694</v>
+        <v>7.092791589698223</v>
       </c>
       <c r="R3">
-        <v>1.182743552872694</v>
+        <v>63.835124307284</v>
       </c>
       <c r="S3">
-        <v>0.02389993296791302</v>
+        <v>0.07400003227910022</v>
       </c>
       <c r="T3">
-        <v>0.02389993296791302</v>
+        <v>0.07400003227910022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H4">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6334766279648461</v>
+        <v>0.6975466666666668</v>
       </c>
       <c r="N4">
-        <v>0.6334766279648461</v>
+        <v>2.09264</v>
       </c>
       <c r="O4">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="P4">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="Q4">
-        <v>0.2425847382237123</v>
+        <v>1.579415622204445</v>
       </c>
       <c r="R4">
-        <v>0.2425847382237123</v>
+        <v>14.21474059984</v>
       </c>
       <c r="S4">
-        <v>0.00490195779846242</v>
+        <v>0.01647825197556902</v>
       </c>
       <c r="T4">
-        <v>0.00490195779846242</v>
+        <v>0.01647825197556902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H5">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I5">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J5">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.32066665506172</v>
+        <v>5.986266666666666</v>
       </c>
       <c r="N5">
-        <v>3.32066665506172</v>
+        <v>17.9588</v>
       </c>
       <c r="O5">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="P5">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="Q5">
-        <v>1.271622370401107</v>
+        <v>13.55436638697778</v>
       </c>
       <c r="R5">
-        <v>1.271622370401107</v>
+        <v>121.9892974828</v>
       </c>
       <c r="S5">
-        <v>0.02569592481757232</v>
+        <v>0.1414144963198873</v>
       </c>
       <c r="T5">
-        <v>0.02569592481757232</v>
+        <v>0.1414144963198873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H6">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.54688437510582</v>
+        <v>7.602918333333334</v>
       </c>
       <c r="N6">
-        <v>7.54688437510582</v>
+        <v>22.808755</v>
       </c>
       <c r="O6">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="P6">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="Q6">
-        <v>15.2010501240975</v>
+        <v>15.88423493232556</v>
       </c>
       <c r="R6">
-        <v>15.2010501240975</v>
+        <v>142.95811439093</v>
       </c>
       <c r="S6">
-        <v>0.3071706272466326</v>
+        <v>0.165722322847909</v>
       </c>
       <c r="T6">
-        <v>0.3071706272466326</v>
+        <v>0.165722322847909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H7">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.08857186609161</v>
+        <v>3.132521333333333</v>
       </c>
       <c r="N7">
-        <v>3.08857186609161</v>
+        <v>9.397564000000001</v>
       </c>
       <c r="O7">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="P7">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="Q7">
-        <v>6.221048768575789</v>
+        <v>6.544553368544889</v>
       </c>
       <c r="R7">
-        <v>6.221048768575789</v>
+        <v>58.90098031690401</v>
       </c>
       <c r="S7">
-        <v>0.1257099632443169</v>
+        <v>0.06828019044405918</v>
       </c>
       <c r="T7">
-        <v>0.1257099632443169</v>
+        <v>0.06828019044405918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H8">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J8">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6334766279648461</v>
+        <v>0.6975466666666668</v>
       </c>
       <c r="N8">
-        <v>0.6334766279648461</v>
+        <v>2.09264</v>
       </c>
       <c r="O8">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="P8">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="Q8">
-        <v>1.275958328698109</v>
+        <v>1.457334492337778</v>
       </c>
       <c r="R8">
-        <v>1.275958328698109</v>
+        <v>13.11601043104</v>
       </c>
       <c r="S8">
-        <v>0.02578354238470959</v>
+        <v>0.01520456340928947</v>
       </c>
       <c r="T8">
-        <v>0.02578354238470959</v>
+        <v>0.01520456340928947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H9">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J9">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.32066665506172</v>
+        <v>5.986266666666666</v>
       </c>
       <c r="N9">
-        <v>3.32066665506172</v>
+        <v>17.9588</v>
       </c>
       <c r="O9">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="P9">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="Q9">
-        <v>6.688537648134384</v>
+        <v>12.50667992631111</v>
       </c>
       <c r="R9">
-        <v>6.688537648134384</v>
+        <v>112.5601193368</v>
       </c>
       <c r="S9">
-        <v>0.1351566035219645</v>
+        <v>0.1304838449779932</v>
       </c>
       <c r="T9">
-        <v>0.1351566035219645</v>
+        <v>0.1304838449779932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H10">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.54688437510582</v>
+        <v>7.602918333333334</v>
       </c>
       <c r="N10">
-        <v>7.54688437510582</v>
+        <v>22.808755</v>
       </c>
       <c r="O10">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="P10">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="Q10">
-        <v>1.324818920716457</v>
+        <v>1.448665127845556</v>
       </c>
       <c r="R10">
-        <v>1.324818920716457</v>
+        <v>13.03798615061</v>
       </c>
       <c r="S10">
-        <v>0.02677087803424643</v>
+        <v>0.01511411478350502</v>
       </c>
       <c r="T10">
-        <v>0.02677087803424643</v>
+        <v>0.01511411478350502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H11">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I11">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J11">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.08857186609161</v>
+        <v>3.132521333333333</v>
       </c>
       <c r="N11">
-        <v>3.08857186609161</v>
+        <v>9.397564000000001</v>
       </c>
       <c r="O11">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="P11">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="Q11">
-        <v>0.5421837996734018</v>
+        <v>0.5968727032008889</v>
       </c>
       <c r="R11">
-        <v>0.5421837996734018</v>
+        <v>5.371854328808</v>
       </c>
       <c r="S11">
-        <v>0.01095601530611552</v>
+        <v>0.006227251815425021</v>
       </c>
       <c r="T11">
-        <v>0.01095601530611552</v>
+        <v>0.006227251815425021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H12">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I12">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J12">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6334766279648461</v>
+        <v>0.6975466666666668</v>
       </c>
       <c r="N12">
-        <v>0.6334766279648461</v>
+        <v>2.09264</v>
       </c>
       <c r="O12">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="P12">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="Q12">
-        <v>0.111203747248045</v>
+        <v>0.1329110068977778</v>
       </c>
       <c r="R12">
-        <v>0.111203747248045</v>
+        <v>1.19619906208</v>
       </c>
       <c r="S12">
-        <v>0.002247116121287443</v>
+        <v>0.001386678104988806</v>
       </c>
       <c r="T12">
-        <v>0.002247116121287443</v>
+        <v>0.001386678104988806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H13">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I13">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J13">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.32066665506172</v>
+        <v>5.986266666666666</v>
       </c>
       <c r="N13">
-        <v>3.32066665506172</v>
+        <v>17.9588</v>
       </c>
       <c r="O13">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="P13">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="Q13">
-        <v>0.5829269133272378</v>
+        <v>1.140627241511111</v>
       </c>
       <c r="R13">
-        <v>0.5829269133272378</v>
+        <v>10.2656451736</v>
       </c>
       <c r="S13">
-        <v>0.01177931946437166</v>
+        <v>0.01190031479464837</v>
       </c>
       <c r="T13">
-        <v>0.01177931946437166</v>
+        <v>0.01190031479464837</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H14">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I14">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J14">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.54688437510582</v>
+        <v>7.602918333333334</v>
       </c>
       <c r="N14">
-        <v>7.54688437510582</v>
+        <v>22.808755</v>
       </c>
       <c r="O14">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="P14">
-        <v>0.5172783778317747</v>
+        <v>0.4364663819587059</v>
       </c>
       <c r="Q14">
-        <v>6.182831703632742</v>
+        <v>7.286885292665557</v>
       </c>
       <c r="R14">
-        <v>6.182831703632742</v>
+        <v>65.58196763399002</v>
       </c>
       <c r="S14">
-        <v>0.1249377034521154</v>
+        <v>0.07602503754016189</v>
       </c>
       <c r="T14">
-        <v>0.1249377034521154</v>
+        <v>0.07602503754016188</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H15">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I15">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J15">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.08857186609161</v>
+        <v>3.132521333333333</v>
       </c>
       <c r="N15">
-        <v>3.08857186609161</v>
+        <v>9.397564000000001</v>
       </c>
       <c r="O15">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="P15">
-        <v>0.2116968228609337</v>
+        <v>0.1798309797402525</v>
       </c>
       <c r="Q15">
-        <v>2.53033160486861</v>
+        <v>3.002310774896889</v>
       </c>
       <c r="R15">
-        <v>2.53033160486861</v>
+        <v>27.02079697407201</v>
       </c>
       <c r="S15">
-        <v>0.05113091134258825</v>
+        <v>0.03132350520166812</v>
       </c>
       <c r="T15">
-        <v>0.05113091134258825</v>
+        <v>0.03132350520166812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H16">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I16">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J16">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6334766279648461</v>
+        <v>0.6975466666666668</v>
       </c>
       <c r="N16">
-        <v>0.6334766279648461</v>
+        <v>2.09264</v>
       </c>
       <c r="O16">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="P16">
-        <v>0.04341974067986214</v>
+        <v>0.04004457979149087</v>
       </c>
       <c r="Q16">
-        <v>0.5189796456682161</v>
+        <v>0.6685515118577779</v>
       </c>
       <c r="R16">
-        <v>0.5189796456682161</v>
+        <v>6.016963606720002</v>
       </c>
       <c r="S16">
-        <v>0.01048712437540269</v>
+        <v>0.006975086301643574</v>
       </c>
       <c r="T16">
-        <v>0.01048712437540269</v>
+        <v>0.006975086301643574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.819256185244795</v>
+        <v>0.9584326666666668</v>
       </c>
       <c r="H17">
-        <v>0.819256185244795</v>
+        <v>2.875298</v>
       </c>
       <c r="I17">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="J17">
-        <v>0.2415289499936274</v>
+        <v>0.1741830314604954</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.32066665506172</v>
+        <v>5.986266666666666</v>
       </c>
       <c r="N17">
-        <v>3.32066665506172</v>
+        <v>17.9588</v>
       </c>
       <c r="O17">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="P17">
-        <v>0.2276050586274295</v>
+        <v>0.3436580585095507</v>
       </c>
       <c r="Q17">
-        <v>2.720476696295458</v>
+        <v>5.737433524711112</v>
       </c>
       <c r="R17">
-        <v>2.720476696295458</v>
+        <v>51.6369017224</v>
       </c>
       <c r="S17">
-        <v>0.05497321082352104</v>
+        <v>0.05985940241702185</v>
       </c>
       <c r="T17">
-        <v>0.05497321082352104</v>
+        <v>0.05985940241702185</v>
       </c>
     </row>
   </sheetData>
